--- a/biology/Médecine/Insight_ToolKit/Insight_ToolKit.xlsx
+++ b/biology/Médecine/Insight_ToolKit/Insight_ToolKit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">ITK (Insight Segmentation and Registration Toolkit) est une bibliothèque logicielle libre de classes C++ de traitement d'image. Elle contient des algorithmes de recalage d'image, de filtrage et de segmentation. Elle a été créée dans le but d'analyser toute sorte d'images médicales.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Soutenir le Visible Human Project ;
 créer une base pour la recherche future ;
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gradient d'image soumis à un filtre gaussien
-  #include "itkImage.h"
+          <t>Gradient d'image soumis à un filtre gaussien</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  #include "itkImage.h"
   int main()
     {
     typedef itk::Image&lt; unsigned char, 3 &gt; ImageType;
@@ -575,8 +594,43 @@
       return EXIT_FAILURE;
       }
     }
-Segmentation par la méthode d'accroissement de région (Region Growing)
-  #include "itkImage.h"
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Insight_ToolKit</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Insight_ToolKit</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Segmentation par la méthode d'accroissement de région (Region Growing)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  #include "itkImage.h"
   int main()
     {
     typedef itk::Image&lt; signed short,  3 &gt;  InputImageType;
@@ -593,9 +647,9 @@
     writer-&gt;SetInput( filter-&gt;GetOutput() );
     filter-&gt;SetMultiplier(2.5);
     ImageType::IndexType seed;
-    seed[0] = 142;
-    seed[1] =  97;
-    seed[2] =  63;
+    seed = 142;
+    seed =  97;
+    seed =  63;
     filter-&gt;AddSeed( seed );
     try
       {
